--- a/정보처리기사/실기.xlsx
+++ b/정보처리기사/실기.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YouMe\업무 파일\220709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YouMe\업무 파일\220718\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AF981E-77E6-4AD7-92FA-CA50ABEF655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A6CF87-3E25-45A0-AC1B-597DF73FEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-23148" yWindow="-12" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="7과목" sheetId="1" r:id="rId1"/>
+    <sheet name="8과목" sheetId="2" r:id="rId2"/>
+    <sheet name="9과목" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7과목'!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8과목'!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9과목'!$B$1:$B$97</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>정답</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,6 +270,82 @@
   </si>
   <si>
     <t>SELECT 학과, COUNT(*) AS 튜플수 FROM 학생 GROUP BY 학과;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목, 버전, 변경, 통제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모듈에서 화살표가 나가는 경우를 (팬아웃/팬인)이고, 모듈에서 화살표가 들어오는 경우 (팬아웃/팬인)이라고 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬아웃, 팬인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">형상 통제는 형상 ㅇㅇ의 ㅇㅇ 관리를 위해서 ㅇㅇ 여부와 활동을 ㅇㅇ하는 활동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux 위에서 구동하며 휴대 전화를 비롯한 휴대용 장치를 위한 운영체제와 미들웨어, 사용자 인터페이스 그리고 표준 응용프로그램 등을 포함하고 있는 자바 및 코틀린을 사용하여 개발하는 운영체제는 무엇인가?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모듈의 기능적 독립성은 소프트웨어를 구성하는 각 모듈의 기능이 서로 독립됨을 의미하는 것으로, 모듈이 하나의 기능만을 수행하고 다른 모듈과의 과도한 상호 작용을 배제함으로써 이루어짐. 모듈의 독립성을 높이기 위해서는 ㅇㅇㅇ는 약하게, ㅇㅇㅇ는 강하게 만들어야 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결합도, 응집도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;결합도&gt;
+- ㅇㅇ 결합도는 다른 모듈 내부에 있는 변수나 기능을 다른 모듈에서 사용하는 경우의 결합도
+- ㅇㅇ 결합도는 파라미터가 아닌 모듈 밖에 선언된 전역 변수를 참조하고 전역 변수를 갱신하는 식으로 상호 작용하는 경우의 결합도
+- ㅇㅇ 결합도는 두 개의 모듈이 외부에서 도입된 데이터 포맷, 통신 프로토콜, 또는 디바이스 인터페이스를 공유할 경우의 결합도
+- ㅇㅇ 결합도는 어떤 모듈이 다른 모듈의 내부 논리 조직을 제어하기 위한 목적으로 제어 신호를 이용하여 통신하는 경우의 결합도
+- ㅇㅇㅇ 결합도는 모듈 간의 인터페이스로 배열이나 객체, 구조 등이 전달되는 경우의 결합도
+- ㅇㅇ 결합도는 모듈 간의 인터페이스로 전달되는 파라미터를 통해서만 모듈 간의 상호 작용이 일어나는 경우의 결합도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용, 공통, 외부, 제어, 스탬프, 자료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결합도 종류 중 단순 처리할 대상인 값만 전달되는 게 아니라 어떻게 처리를 해야 한다는 제어 요소가 전달되는 경우의 결합도를 영어로 쓰면?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Coupling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;응집도&gt;
+- ㅇㅇ적 응집도; 모듈 내부의 각 구성요소가 연관이 없을 경우의 응집도
+- ㅇㅇ적 응집도; 유사한 성격을 갖거나 특정 형태로 분류되는 처리 요소들이 한 모듈에서 처리되는 경우의 응집도
+- ㅇㅇ적 응집도; 연관된 기능이라기보다는 특정 시간에 처리되어야 하는 활동들을 한 모듈에서 처리할 경우의 응집도
+- ㅇㅇ적 응집도; 모듈이 다수의 관련 기능을 가질 때 모듈 안의 구성요소들이 그 기능을 순차적으로 수행할 경우의 응집도
+- ㅇㅇ적 응집도; 동일한 입력과 출력을 사용하여 다른 기능을 수행하는 활동들이 모여있을 경우의 응집도
+- ㅇㅇ적 응집도; 모듈 내에서 한 활동으로부터 나온 출력값을 다른 활동이 사용할 경우의 응집도
+- ㅇㅇ적 응집도; 모듈 내부의 모든 기능이 단일한 목적을 위해 수행되는 경우의 응집도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우연, 논리, 시간, 절차, 통신, 순차, 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +752,7 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -708,7 +788,7 @@
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.83061871085278682</v>
+        <v>0.16441563574658291</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -728,7 +808,7 @@
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7171958269850861</v>
+        <v>0.98183998040947629</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -747,7 +827,7 @@
     <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96694476232605797</v>
+        <v>0.30550438213968001</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -766,7 +846,7 @@
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92189219335939132</v>
+        <v>0.82510087955696487</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -786,7 +866,7 @@
     <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54446609284850522</v>
+        <v>0.81712210888376446</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -805,7 +885,7 @@
     <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4858402075346161</v>
+        <v>5.7196773158984526E-2</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -824,7 +904,7 @@
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61336048207802485</v>
+        <v>0.61075509321068422</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -844,7 +924,7 @@
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81361295842143322</v>
+        <v>9.7465072636628403E-2</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -863,7 +943,7 @@
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1831950679075618E-2</v>
+        <v>0.22791312125902441</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -882,7 +962,7 @@
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45903214146217908</v>
+        <v>0.52463106153144079</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -902,7 +982,7 @@
     <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30389138221248435</v>
+        <v>0.77281309010377441</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -921,7 +1001,7 @@
     <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4558117771884429</v>
+        <v>0.38940628281354783</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -941,7 +1021,7 @@
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28133868552641339</v>
+        <v>2.4044903642237103E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -960,7 +1040,7 @@
     <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21010021734730178</v>
+        <v>0.7425723956429896</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -980,7 +1060,7 @@
     <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33785654060770265</v>
+        <v>5.5539127359921725E-2</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -999,7 +1079,7 @@
     <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96457534697081448</v>
+        <v>0.7621756136792649</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1019,7 +1099,7 @@
     <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71169001968935408</v>
+        <v>0.2325566054886733</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1038,7 +1118,7 @@
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11004474557984567</v>
+        <v>0.42299912245369997</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1057,7 +1137,7 @@
     <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84894154520420018</v>
+        <v>0.24391854567292071</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1076,7 +1156,7 @@
     <row r="21" spans="1:7" ht="116" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16039052252879649</v>
+        <v>0.55360206572049386</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1095,7 +1175,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39322536096876537</v>
+        <v>0.59964318539474681</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1106,7 +1186,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63282253284009471</v>
+        <v>5.9099466199842632E-2</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1117,7 +1197,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33245974335797746</v>
+        <v>0.26435047291391234</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1128,7 +1208,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52368741249226214</v>
+        <v>0.75246814408691254</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1139,7 +1219,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85332993389469347</v>
+        <v>0.85208102961292931</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1150,7 +1230,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61783993692276451</v>
+        <v>0.94296946066718434</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1161,7 +1241,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25486705326329306</v>
+        <v>0.41685459530780011</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1172,7 +1252,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77940192596756785</v>
+        <v>0.95960045661834981</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1183,7 +1263,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37318796533862686</v>
+        <v>0.20703379641013853</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1194,7 +1274,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8097531504043276</v>
+        <v>0.39348265713808239</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1205,7 +1285,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99868621120769463</v>
+        <v>0.2583240298763454</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1216,7 +1296,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57961711801859606</v>
+        <v>0.51290191814915476</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1227,7 +1307,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.49075272759375288</v>
+        <v>0.90850546190548243</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -1238,7 +1318,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25335102496078998</v>
+        <v>4.4256175225579453E-2</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1249,7 +1329,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45192896986774123</v>
+        <v>0.34712953317854911</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1260,7 +1340,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50855514643334598</v>
+        <v>0.44190866656881334</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1271,7 +1351,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52870550827917162</v>
+        <v>0.21126895605776785</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1282,7 +1362,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40125266857071729</v>
+        <v>0.4196550424372868</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1293,7 +1373,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61158614748909912</v>
+        <v>0.55520131662708072</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1304,7 +1384,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66716310487353991</v>
+        <v>0.95197199488245499</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1315,7 +1395,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72578410149665118</v>
+        <v>0.70424521411455465</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1326,7 +1406,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11910801253343939</v>
+        <v>4.0690791290030837E-2</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1337,7 +1417,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6759210584163543</v>
+        <v>0.8216327966341701</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1348,7 +1428,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49922289561331523</v>
+        <v>0.79205779248168251</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1359,7 +1439,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41981443591257916</v>
+        <v>0.12423281721981339</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1370,7 +1450,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4644742937883104</v>
+        <v>0.74050677511986363</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1381,7 +1461,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92915248917109039</v>
+        <v>0.54680922590065595</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1392,7 +1472,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78283583468537854</v>
+        <v>9.4257707024930193E-2</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1403,7 +1483,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45210371004958494</v>
+        <v>0.95077870228508687</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -1414,7 +1494,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8757055951527923E-2</v>
+        <v>3.3492481776815075E-2</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1425,7 +1505,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46626800925519973</v>
+        <v>0.66469306674238393</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1436,7 +1516,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.996074495727354E-2</v>
+        <v>2.3609737278618481E-2</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1447,7 +1527,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27217326627777771</v>
+        <v>0.31930933617607682</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1458,7 +1538,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10971907350755594</v>
+        <v>6.4537617050186125E-2</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1469,7 +1549,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59560048393907972</v>
+        <v>0.33081787485127678</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1480,7 +1560,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5945674288483969E-2</v>
+        <v>0.19581681555266262</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1491,7 +1571,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70638366050023682</v>
+        <v>0.78170399466054352</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1502,7 +1582,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85874362969319429</v>
+        <v>0.18686338160072757</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1513,7 +1593,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31342958414411926</v>
+        <v>0.76726390790887256</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1524,7 +1604,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51936919911604051</v>
+        <v>0.54624964926274755</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1535,7 +1615,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48916867022530441</v>
+        <v>0.29545598014049712</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1546,7 +1626,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78725029777635847</v>
+        <v>0.5798442144697058</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1557,7 +1637,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20599664667773299</v>
+        <v>0.74478947383501404</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1568,7 +1648,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9125560391750023E-2</v>
+        <v>1.5537713837471157E-2</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1579,7 +1659,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10601495175442444</v>
+        <v>0.79762932109332163</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -1590,7 +1670,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71387182142080929</v>
+        <v>0.11687997154063556</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1601,7 +1681,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7186268936418463E-2</v>
+        <v>0.71159039196551921</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1612,7 +1692,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55409969296219597</v>
+        <v>0.19003042633262524</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1623,7 +1703,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50643467670379705</v>
+        <v>0.14744440412443582</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1634,7 +1714,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48060782149889913</v>
+        <v>0.66201552884610793</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1645,7 +1725,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48716857705326233</v>
+        <v>0.90208083706320519</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1656,7 +1736,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89265667289500483</v>
+        <v>0.65958401036933723</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1667,7 +1747,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85032177885089921</v>
+        <v>0.31524224815289836</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1678,7 +1758,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98312020693470037</v>
+        <v>0.96864224325417125</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1689,7 +1769,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9848412492500157</v>
+        <v>0.47489053942513482</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1700,7 +1780,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12844543080912851</v>
+        <v>0.82911877155345304</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1711,7 +1791,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43034142820703725</v>
+        <v>0.53745046429275456</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1722,7 +1802,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13216523226944221</v>
+        <v>0.62772854674136092</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1733,7 +1813,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7635257975309919E-2</v>
+        <v>0.67330535767947453</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1744,7 +1824,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9613129740085018E-2</v>
+        <v>0.5804970405433646</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1755,7 +1835,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29535782784707276</v>
+        <v>0.72285855883096495</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1766,7 +1846,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57781053674072635</v>
+        <v>0.60380960854089083</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1777,7 +1857,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89054745039047178</v>
+        <v>0.14204979544228291</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1788,7 +1868,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82389212939623002</v>
+        <v>0.96102623880005555</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1799,7 +1879,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57994562013058804</v>
+        <v>0.7040460318016788</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1810,7 +1890,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85676505652740731</v>
+        <v>0.85419881252957008</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1821,7 +1901,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18786862550246686</v>
+        <v>0.44582647531192821</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1832,7 +1912,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33391807294387332</v>
+        <v>0.25179585683574834</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1843,7 +1923,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76271976645933448</v>
+        <v>0.5713290381687065</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1854,7 +1934,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23172186339581524</v>
+        <v>0.2261834119871825</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1865,7 +1945,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95679817069224216</v>
+        <v>0.45858210741725669</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1876,7 +1956,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34631443580423615</v>
+        <v>0.60889261658958138</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1887,7 +1967,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25632461261318018</v>
+        <v>0.13190831553028737</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1898,7 +1978,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17818771086640783</v>
+        <v>0.93164699374774274</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1909,7 +1989,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48667669220982346</v>
+        <v>0.85195617086379538</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1920,7 +2000,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51114084406482052</v>
+        <v>0.34435612776854196</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1938,4 +2018,1214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0627541D-82B1-4894-9E7C-2B9E192C263B}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
+        <v>0.91373676317775776</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B65" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1">
+        <v>203</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59134590999577819</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50341614336660467</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74084789877624946</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>201</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53664770799494843</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93028436442248463</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="130.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25102259253220527</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>212</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B97" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0060815-C32C-4C5B-8F9F-8B7906490464}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
+        <v>0.58675387870035445</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B65" si="1">IF(C2=D2,"O","X")</f>
+        <v>O</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82461583950978168</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8304035678656581E-2</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18739424540463689</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41513117798409582</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32213002579091188</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90989738805311149</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B97" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/정보처리기사/실기.xlsx
+++ b/정보처리기사/실기.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YouMe\업무 파일\220718\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A6CF87-3E25-45A0-AC1B-597DF73FEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9437C-FCED-472D-8498-CF156B9AFB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-12" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-23148" yWindow="-12" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="7과목" sheetId="1" r:id="rId1"/>
     <sheet name="8과목" sheetId="2" r:id="rId2"/>
     <sheet name="9과목" sheetId="3" r:id="rId3"/>
+    <sheet name="10과목" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10과목'!$B$1:$B$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7과목'!$B$1:$B$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8과목'!$B$1:$B$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9과목'!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9과목'!$B$1:$B$66</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>정답</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,6 +348,288 @@
   </si>
   <si>
     <t>우연, 논리, 시간, 절차, 통신, 순차, 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격자가 패킷의 출발지 주소나 포트를 임의로 변경해서 출발지와 목적지 주소를 동일하게 함으로써 공격 대상 컴퓨터의 실행속도를 느리게 하거나 동작을 마비시켜 서비스 거부 상태에 빠지도록 하는 공격 방법은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드 어택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC 132로 지정되어 있으며, 주로 프로그램이나 파일이 원본 그대로인지를 확인하는 무결성 검사 등에 사용됨. 1991년 로널드 라이베스트가 예전에 쓰이던 MD4를 대체하기 위해 고안된 128비트 암호화 해시 함수는?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스니핑은 공격 대상에게 직접 ㅇㅇ을 하지 않고, ㅇㅇㅇ만 몰래 들여다보는 ㅇㅇㅇ 공격기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격, 데이터, 수동적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">무결성과 인증을 보장하는 인증헤더와 기밀성을 보장하는 암호화를 이용한 프로토콜로 네트워크 계층인 인터넷 프로토콜에서 보안성을 제공해주는 표준화된 기술은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPSec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Injection은 응용 프로그램의 ㅇㅇ 취약점을 이용해서 악의적인 ㅇㅇㅇ 구문을 삽입, 실행시켜 DB의 접근을 통해 ㅇㅇ를 탈취하거나 조작 등의 행위를 하는 공격기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안, SQL, 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정보보안의 가용성: ㅇㅇ을 가진 사용자나 애플리케이션이 원하는 ㅇㅇㅇ를 지속 사용할 수 있도록 ㅇㅇ하는 특성
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한, 서비스, 보장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템 객체의 접근을 개인 또는 그룹의 식별자에 기반을 둔 방법으로, 어떤 종류의 접근 권한을 가진 사용자가 다른 사용자에 자신의 판단에 따라 권한을 허용하는 접근제어 방식은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의적 접근통제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ ㅇㅇㅇㅇ
+- '세션을 가로채다'라는 의미로 정상적 연결을 RST 패킷을 통해 종료시킨 후 재연결 시 희생자가 아닌 공격자에게 연결
+- 세션 관리 취약점을 이용한 공격기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 하이재킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미국 표준 기술 연구소에서 발표한 블록 암호화 알고리즘으로 DES의 성능문제를 극복하기 위해 개발된 128bit의 블록 크기를 갖는 보안 알고리즘은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM에서 개발한 블록 암호화 알고리즘으로 블록의 크기는 64비트, 키 길이는 56비트, 16라운드 암호화 알고리즘은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;3A&gt;
+- (  ); 접근을 시도하는 가입자 또는 단말에 대한 식별 및 검증
+- (  ); 검증된 가입자나 단말에게 어떤 수준의 권한과 서비스를 허용
+- (  ); 리소스 사용에 대한 정보를 수집하고 관리하는 서비스
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication, Authorization, Accounting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇ Spoofing; 특정 호스트의 MAC 주소를 자신의 MAC 주소로 변경, 희생자로부터 특정 호스트로 나가는 패킷을 공격자가 가로채는 공격기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정보시스템 운영 중 서버가 다운되거나 자연재해나 시스템 장애 등의 이유로 고객에게 서비스가 불가능 한 경우가 종종 발생함. 이와 같은 상황에서 비상사태 또는 업무 중단 시점부터 업무가 복구되어 다시 정상 가동될 때까지의 시간을 의미하는 용어는?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재해 복구 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">살충제 패러독스는 ㅇㅇ한 테스트 케이스에 의한 ㅇㅇ적 테스트는 새로운 ㅇㅇ를 찾지 못한다는 원리로, 테스트 케이스의 정기적 리뷰와 개선 및 다른 시각에서의 ㅇㅇ이 필요하다는 의미를 담고 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일, 반복, 버그, 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트의 종류 중 동치 분할 테스트, 경곗값 분석 테스트 등의 종류가 있는 테스트 기법은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙박스 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트 오라클 중 특정한 몇 개의 입력값에 대해서만 기대하는 결과를 제공해주는 오라클은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플링 오라클</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ ㅇㅇ 테스트
+- 입력 데이터의 영역을 유사한 도메인 별로 유횻값/무횻값을 그룹핑하여 대푯값 테스트 케이스를 도출하여 테스트하는 기법
+- 데이터 영역에 대해 경계에 가까운 값이 아닌 영역 내에 있는 일반 값들로 테스트함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동등 분할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;블랙박스 기법 예제&gt;
+- ㅇㅇㅇ ㅇㅇ 테스트; 0 &lt;= x &lt;= 10이면, -1, 0, 10, 11 검사
+- ㅇㅇㅇㅇ 테스트; 유횻값 무효값 나누어서 대표값을 검사
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경곗값 분석, 동등분할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래프를 활용하여 입력 데이터 간의 관계 및 출력에 미치는 영향을 분석하여 효용성이 높은 테스트케이스를 선정하여 테스트하는 기법은?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인-결과 그래프 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;화이트 박스 테스트 검증 기준&gt;
+- ㅇㅇ 커버리지; 프로그램 내의 모든 명령문을 적어도 한 번 수행하는 커버리지로 조건문 결과와 관계없이 구문 실행 개수로 계산
+- ㅇㅇ 커버리지; 결정 포인트 내의 전체 조건식이 적어도 한 번은 참과 거짓의 결과를 수행하는 테스트 커버리지로 구문 커버리지를 포함
+- ㅇㅇ 커버리지; 결정 포인트 내의 각 개별 조건식이 적어도 한 번은 참과 거짓의 결과가 되도록 수행하는 테스트 커버리지로 구문 커버리지 포함
+- ㅇㅇ/ㅇㅇ 커버리지; 전체 조건식 뿐만 아니라 개별 조건식도 참 한 번, 거짓 한 번 결과가 되도록 수행하는 테스트 커버리지
+- ㅇㅇ ㅇㅇ/ㅇㅇ 커버리지; 개별 조건식이 다른 개별 조건식에 영향을 받지 않고 전체 조건식에 독립적으로 영향을 주도록 함
+- ㅇㅇ ㅇㅇ 커버리지; 결정 조건 내 모든 갭려 조건식의 모든 가능한 조합을 100% 보장하는 커버리짙
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구문, 결정, 조건, 조건, 결정, 변경 조건, 결정, 다중 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트 종류&gt;
+- ㅇㅇ 테스트; 사용자 요구사항에 대한 단위 모듈, 서브루틴 등을 테스트하는 단계
+- ㅇㅇ 테스트; 단위 테스트를 통과한 모듈 사이의 인터페이스, 통합된 컴포넌트 간의 상호 작용을 검증하는 테스트 단계
+- ㅇㅇㅇ 테스트; 통합된 단위 시스템의 기능이 시스템에서 정상적으로 수행되는지를 검증하는 테스트 단계 
+- ㅇㅇ 테스트; 계약상의 요구사항이 만족하였는지 확인하기 위한 테스트 단계
+- ㅇㅇ 테스트; 선택된 사용자가 개발자 환경에서 통제된 상태로 개발자와 함께 수행하는 인수 테스트
+- ㅇㅇ 테스트; 실제 환경에서 일정 수의 사용자에게 대상 소프트웨어를 사용하게 하고 피드백을 받는 인수 테스트
+- ㅇㅇ 테스트; 오류를 제거하거나 수정한 시스템에서 오류 제거와 수정 때문에 새로이 유입된 오류가 없는지 확인하는 일종의 반복 테스트 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위, 통합, 시스템, 인수, 알파, 베타, 회귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트 케이스 필요 항목&gt;
+- 테스트 ㅇㅇ 작성; 테스트 케이스를 고유하게 식별하기 위해 작성
+- 테스트 ㅇㅇ 작성; 테스트 시 고려해야 할 중점 사항이나 테스트 케이스의 목적을 작성
+- 테스트할 ㅇㅇ 요약; 애플리케이션의 테스트할 기능을 간략하게 작성
+- ㅇㅇ 데이터 작성; 테스트 실행 시 입력할 데이터를 작성
+- ㅇㅇ 결과 작성; 테스트 실행 후 기대되는 결과 데이터를 작성
+- 테스트 ㅇㅇ 설정; 테스트 시 사용할 물리적, 논리적 테스트 환경, 사용할 데이터, 결과 기록 서버 등의 내용을 작성
+- ㅇㅇ 조건 설정; 테스트 간의 종속성, 테스트 수행 전 실행되어야 할 고려 사항 등을 작성
+- 성공/실패 ㅇㅇ 설정; 테스트를 거친 애플리케이션 기능의 성공과 실패를 판단하는 조건을 명확하게 작성
+- ㅇㅇ 요소를 식별하여 설정; 사용자의 테스트 요구사항 중 특별히 고려해야 할 내용을 간략하게 서술
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, 목적, 기능, 입력, 기대, 환경, 전제, 기준, 기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애플리케이션을 실행하지 않고 소스 코드에 대한 코딩 표준, 코딩 스타일, 코드 복잡도 및 남은 결함을 발견하기 위해 사용하는 도구는?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적 분석 도구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ식 테스트는 최하위 모듈로부터 위쪽 방향으로 제어의 경로를 따라 이동하면서 테스트와 통합을 수행하는 방식이고, 하위 모듈을 포함하는 ㅇㅇㅇ ㅇㅇㅇㅇ가 필요하다.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상향, 테스트 드라이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하향식 통합 테스트에서는 테스트 ㅇㅇ을 사용함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;애플리케이션 성능 측정 지표&gt;
+- ㅇㅇㅇ; 애플리케이션이 주어진 시간에 처리할 수 있는 트랜잭션의 수로 웹 애플리케이션의 경우 시간당 페이지수로 표현
+- ㅇㅇ 시간; 사용자 입력이 끝난 후, 애플리케이션의 응답 출력이 개시될 때까지의 시간. 애플리케이션의 경우 메뉴 클릭 시 해당 메뉴가 나타나기까지 걸리는 시간
+- ㅇㅇ 시간; 애플리케이션에 사용자가 요구를 입력한 시점부터 트랜잭션을 처리 후 그 결과의 출력이 완료할 때까지 걸리는 시간
+- ㅇㅇ 사용률; 애플리케이션이 트랜잭션을 처리하는 동안 사용하는 CPU 사용량, 메모레 사용량, 네트워크 사용량
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리량, 응답, 경과, 자원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;리팩토링의 목적&gt;
+- ㅇㅇㅇㅇ성 향상; 복잡한 코드의 단순화, 소스의 가독성 향상
+- ㅇㅇ한 시스템; 소프트웨어 요구사항 변경에 유연한 대응
+- ㅇㅇㅇ 향상; 정제 및 최적화된 소스의 재사용
+- ㅇㅇ 향상; 소프트웨어 오류발견이 용이하여 품질 향상
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수, 유연, 생산성, 품질</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +1037,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
@@ -788,7 +1072,7 @@
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.16441563574658291</v>
+        <v>0.73560432789683317</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -808,7 +1092,7 @@
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98183998040947629</v>
+        <v>0.59765547511679351</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -827,7 +1111,7 @@
     <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30550438213968001</v>
+        <v>0.58449058031858681</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -846,7 +1130,7 @@
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82510087955696487</v>
+        <v>0.8452908007144464</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -866,7 +1150,7 @@
     <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81712210888376446</v>
+        <v>9.857854819709444E-2</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -885,7 +1169,7 @@
     <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7196773158984526E-2</v>
+        <v>0.23139624192997132</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -904,7 +1188,7 @@
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61075509321068422</v>
+        <v>0.78487989151956994</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -924,7 +1208,7 @@
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7465072636628403E-2</v>
+        <v>0.40803721045716512</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -943,7 +1227,7 @@
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22791312125902441</v>
+        <v>0.57305202641361597</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -962,7 +1246,7 @@
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52463106153144079</v>
+        <v>8.1002072983908269E-2</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -982,7 +1266,7 @@
     <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77281309010377441</v>
+        <v>7.7258684538044742E-2</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1001,7 +1285,7 @@
     <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38940628281354783</v>
+        <v>0.55376782621931575</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1021,7 +1305,7 @@
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4044903642237103E-2</v>
+        <v>0.31379023332939382</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1040,7 +1324,7 @@
     <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7425723956429896</v>
+        <v>0.63011687298752439</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1060,7 +1344,7 @@
     <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5539127359921725E-2</v>
+        <v>0.34827802700305333</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1079,7 +1363,7 @@
     <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7621756136792649</v>
+        <v>0.63487360307991092</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1099,7 +1383,7 @@
     <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2325566054886733</v>
+        <v>0.85690194964774724</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1118,7 +1402,7 @@
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42299912245369997</v>
+        <v>0.48330613928294386</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1137,7 +1421,7 @@
     <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24391854567292071</v>
+        <v>0.77166977786329294</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1156,7 +1440,7 @@
     <row r="21" spans="1:7" ht="116" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55360206572049386</v>
+        <v>0.83762649036191661</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1175,7 +1459,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59964318539474681</v>
+        <v>0.14064847400628855</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1186,7 +1470,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9099466199842632E-2</v>
+        <v>3.7237644429227612E-2</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1197,7 +1481,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26435047291391234</v>
+        <v>9.2384907055182985E-2</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1208,7 +1492,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75246814408691254</v>
+        <v>0.61036505479211245</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1219,7 +1503,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85208102961292931</v>
+        <v>0.76646173902049752</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1230,7 +1514,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94296946066718434</v>
+        <v>0.50215300521847073</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1241,7 +1525,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41685459530780011</v>
+        <v>0.87230886392880091</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1252,7 +1536,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95960045661834981</v>
+        <v>0.6471212408846081</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1263,7 +1547,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20703379641013853</v>
+        <v>4.1191011484296602E-2</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1274,7 +1558,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39348265713808239</v>
+        <v>1.811953414924905E-2</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1285,7 +1569,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2583240298763454</v>
+        <v>0.5175579716151687</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1296,7 +1580,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51290191814915476</v>
+        <v>0.85125650316121015</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1307,7 +1591,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.90850546190548243</v>
+        <v>0.74295260717647682</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -1318,7 +1602,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4256175225579453E-2</v>
+        <v>0.41238500759904806</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1329,7 +1613,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34712953317854911</v>
+        <v>0.88592331148564707</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1340,7 +1624,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44190866656881334</v>
+        <v>0.35207995952377635</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1351,7 +1635,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21126895605776785</v>
+        <v>0.34744655494866772</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1362,7 +1646,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4196550424372868</v>
+        <v>0.43261035938451509</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1373,7 +1657,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55520131662708072</v>
+        <v>0.16452383724815511</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1384,7 +1668,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95197199488245499</v>
+        <v>0.24806134278190695</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1395,7 +1679,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70424521411455465</v>
+        <v>3.0209859987353482E-2</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1406,7 +1690,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0690791290030837E-2</v>
+        <v>0.87972803852599091</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1417,7 +1701,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8216327966341701</v>
+        <v>0.59266849112211417</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1428,7 +1712,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79205779248168251</v>
+        <v>0.15893942652378168</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1439,7 +1723,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12423281721981339</v>
+        <v>0.38370556943078327</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1450,7 +1734,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74050677511986363</v>
+        <v>0.91039906151774996</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1461,7 +1745,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54680922590065595</v>
+        <v>0.50942292302850922</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1472,7 +1756,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4257707024930193E-2</v>
+        <v>0.40238410967079452</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1483,7 +1767,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95077870228508687</v>
+        <v>1.7083437648800492E-3</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -1494,7 +1778,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3492481776815075E-2</v>
+        <v>0.84241700221425297</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1505,7 +1789,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66469306674238393</v>
+        <v>0.11130408170855388</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1516,7 +1800,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3609737278618481E-2</v>
+        <v>0.1129493060384914</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1527,7 +1811,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31930933617607682</v>
+        <v>0.77327121057792514</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1538,7 +1822,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4537617050186125E-2</v>
+        <v>0.68109505086671562</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1549,7 +1833,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33081787485127678</v>
+        <v>0.55862166305839278</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1560,7 +1844,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19581681555266262</v>
+        <v>0.79946070297462646</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1571,7 +1855,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78170399466054352</v>
+        <v>0.97770354364740231</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1582,7 +1866,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18686338160072757</v>
+        <v>0.71605325085373417</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1593,7 +1877,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76726390790887256</v>
+        <v>0.44765142934547153</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1604,7 +1888,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54624964926274755</v>
+        <v>0.78516384236320858</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1615,7 +1899,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29545598014049712</v>
+        <v>0.48115165043217878</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1626,7 +1910,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5798442144697058</v>
+        <v>0.48069687560275454</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1637,7 +1921,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74478947383501404</v>
+        <v>0.36853227822520518</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1648,7 +1932,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5537713837471157E-2</v>
+        <v>0.33031092896922098</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -1659,7 +1943,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79762932109332163</v>
+        <v>0.62205711840512312</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -1670,7 +1954,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11687997154063556</v>
+        <v>0.98266856258502611</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1681,7 +1965,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71159039196551921</v>
+        <v>0.1162305247292198</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1692,7 +1976,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19003042633262524</v>
+        <v>0.88660087039414637</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1703,7 +1987,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14744440412443582</v>
+        <v>5.4410588220003442E-2</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1714,7 +1998,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66201552884610793</v>
+        <v>0.48145732300606181</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1725,7 +2009,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90208083706320519</v>
+        <v>0.4844391219896097</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1736,7 +2020,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65958401036933723</v>
+        <v>0.2414296015815357</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1747,7 +2031,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31524224815289836</v>
+        <v>0.71784812799887587</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1758,7 +2042,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96864224325417125</v>
+        <v>0.55627938476229855</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1769,7 +2053,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47489053942513482</v>
+        <v>0.6886802492684877</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1780,7 +2064,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82911877155345304</v>
+        <v>0.66723196944848784</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1791,7 +2075,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53745046429275456</v>
+        <v>0.95577089269205673</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1802,7 +2086,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62772854674136092</v>
+        <v>0.71611378535117798</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1813,7 +2097,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67330535767947453</v>
+        <v>0.47921830435439094</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1824,7 +2108,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5804970405433646</v>
+        <v>0.35933638205107854</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1835,7 +2119,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72285855883096495</v>
+        <v>0.46351625145246089</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1846,7 +2130,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60380960854089083</v>
+        <v>0.26052434206176811</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1857,7 +2141,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14204979544228291</v>
+        <v>0.92298356928964242</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1868,7 +2152,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96102623880005555</v>
+        <v>0.60728688527658636</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1879,7 +2163,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7040460318016788</v>
+        <v>0.56790057943062577</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1890,7 +2174,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85419881252957008</v>
+        <v>0.98016598466270277</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1901,7 +2185,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44582647531192821</v>
+        <v>0.61236684510441575</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1912,7 +2196,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25179585683574834</v>
+        <v>0.45797004564167865</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1923,7 +2207,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5713290381687065</v>
+        <v>0.90176725732934515</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1934,7 +2218,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2261834119871825</v>
+        <v>0.78945815171608569</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1945,7 +2229,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45858210741725669</v>
+        <v>0.77901684904521451</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1956,7 +2240,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60889261658958138</v>
+        <v>0.11065204059891598</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1967,7 +2251,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13190831553028737</v>
+        <v>0.58143032801048389</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1978,7 +2262,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93164699374774274</v>
+        <v>0.21225356332387868</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -1989,7 +2273,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85195617086379538</v>
+        <v>0.418000464188368</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2000,7 +2284,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34435612776854196</v>
+        <v>0.56080219867647196</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2027,8 +2311,8 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
@@ -2063,7 +2347,7 @@
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.91373676317775776</v>
+        <v>0.93568425709712943</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B65" si="1">IF(C2=D2,"O","X")</f>
@@ -2083,7 +2367,7 @@
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59134590999577819</v>
+        <v>0.92583068901889143</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2102,7 +2386,7 @@
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50341614336660467</v>
+        <v>0.30776407648597626</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2121,7 +2405,7 @@
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74084789877624946</v>
+        <v>0.94542566066248213</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2141,7 +2425,7 @@
     <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53664770799494843</v>
+        <v>0.71939655345141029</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2160,7 +2444,7 @@
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93028436442248463</v>
+        <v>0.80028684202976963</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2179,7 +2463,7 @@
     <row r="8" spans="1:7" ht="130.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25102259253220527</v>
+        <v>0.3658401671196031</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2658,10 +2942,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
@@ -2693,206 +2977,344 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.58675387870035445</v>
+        <f t="shared" ref="A2:A7" ca="1" si="0">RAND()</f>
+        <v>0.18909621693532708</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B65" si="1">IF(C2=D2,"O","X")</f>
-        <v>O</v>
-      </c>
-      <c r="E2" s="3"/>
+        <f t="shared" ref="B2:B8" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1">
+        <v>201</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82461583950978168</v>
+        <v>0.87572980338669293</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8304035678656581E-2</v>
+        <v>0.65296441615135703</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18739424540463689</v>
+        <v>0.91279812299890906</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1">
+        <v>202</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41513117798409582</v>
+        <v>0.66016840179629832</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32213002579091188</v>
+        <v>0.29242014307090303</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90989738805311149</v>
+        <f ca="1">RAND()</f>
+        <v>0.62142809088245543</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1">
+        <v>211</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <f t="shared" ref="A9:A14" ca="1" si="2">RAND()</f>
+        <v>8.4690663197836691E-2</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" ref="B9:B14" si="3">IF(C9=D9,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51423971947139424</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45933392036273346</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1">
+        <v>213</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="E13" s="3"/>
+    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62913957522696862</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97959443924360701</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1">
+        <v>213</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0960346831973027E-3</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="E32" s="3"/>
@@ -3067,163 +3489,552 @@
       <c r="B66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B97" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <autoFilter ref="B1:B66" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A954C9-C92E-4712-B362-ABC1A6D1E039}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A7" ca="1" si="0">RAND()</f>
+        <v>0.42018656338671123</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88347914558547869</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47399923874022798</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64117230509066625</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1">
+        <v>204</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64927937776639211</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76935725857100978</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="116" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <f ca="1">RAND()</f>
+        <v>0.12486606414732071</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1">
+        <v>212</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="130.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <f t="shared" ref="A9:A15" ca="1" si="2">RAND()</f>
+        <v>6.6304870639649405E-2</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="159.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52246930191447438</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20718258143720447</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1">
+        <v>202</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95712194179189347</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97610516035408534</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1">
+        <v>212</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="101.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82610571462524574</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="87" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55789295245964865</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" ref="B15" si="3">IF(C15=D15,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B60" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
